--- a/附件/result3.xlsx
+++ b/附件/result3.xlsx
@@ -1,131 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-25 A题(蔡志杰)\附件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C236CD6-1B49-404B-932D-9472C56F736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
-  <si>
-    <t>无人机编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人机运动方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人机运动速度 (m/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹投放点的x坐标 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹投放点的y坐标 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹投放点的z坐标 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹起爆点的x坐标 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹起爆点的y坐标 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烟幕干扰弹起爆点的z坐标 (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效干扰时长 (s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干扰的导弹编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：以x轴为正向，逆时针方向为正，取值0~360（度）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,37 +52,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -491,185 +462,1077 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="4" width="16.58203125" customWidth="1"/>
-    <col min="5" max="11" width="14.58203125" customWidth="1"/>
-    <col min="12" max="12" width="16.58203125" customWidth="1"/>
+    <col width="13.58203125" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.58203125" customWidth="1" style="4" min="2" max="4"/>
+    <col width="14.58203125" customWidth="1" style="4" min="5" max="11"/>
+    <col width="16.58203125" customWidth="1" style="4" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="28" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>无人机编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>无人机运动方向</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>无人机运动速度 (m/s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹编号</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹投放点的x坐标 (m)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹投放点的y坐标 (m)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹投放点的z坐标 (m)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹起爆点的x坐标 (m)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹起爆点的y坐标 (m)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕干扰弹起爆点的z坐标 (m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>有效干扰时长 (s)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>干扰的导弹编号</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>FY1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>FY1</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>FY1</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>FY2</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>FY2</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>FY2</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>FY3</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3">
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>FY3</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>FY3</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>FY4</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>FY4</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>FY4</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>FY5</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3">
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>FY5</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3">
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>FY5</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
+    <row r="18" ht="60" customHeight="1" s="4">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>注：以x轴为正向，逆时针方向为正，取值0~360（度）。</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UAV</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Bomb</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>目标导弹</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>航向角(度)</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>速度(m/s)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>投放时间(s)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>引信时间(s)</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>投放点x(m)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>投放点y(m)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>投放点z(m)</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>起爆点x(m)</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>起爆点y(m)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>起爆点z(m)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FY1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>52.131</v>
+      </c>
+      <c r="E2" t="n">
+        <v>83.47199999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18824.789</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1317.887</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19439.662</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2108.619</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1093.921</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FY1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>52.131</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83.47199999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.208</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.019</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18989.148</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1529.255</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K3" t="n">
+        <v>19451.292</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2123.576</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1401.125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FY1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>52.131</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83.47199999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.806</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.853</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19071.047</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1634.578</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19473.445</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2152.064</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1497.592</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FY2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>239.508</v>
+      </c>
+      <c r="E5" t="n">
+        <v>101.62</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.202</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11731.766</v>
+      </c>
+      <c r="I5" t="n">
+        <v>944.4880000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11731.482</v>
+      </c>
+      <c r="L5" t="n">
+        <v>944.005</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FY2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>239.508</v>
+      </c>
+      <c r="E6" t="n">
+        <v>101.62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.079000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11583.426</v>
+      </c>
+      <c r="I6" t="n">
+        <v>692.579</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11201.838</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44.571</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1131.474</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FY2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>239.508</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.62</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.086</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.161</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11531.495</v>
+      </c>
+      <c r="I7" t="n">
+        <v>604.391</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11265.391</v>
+      </c>
+      <c r="L7" t="n">
+        <v>152.496</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1269.413</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FY3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.21299999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.473</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6301.69</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2995.196</v>
+      </c>
+      <c r="J8" t="n">
+        <v>700</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6924.412</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2985.281</v>
+      </c>
+      <c r="M8" t="n">
+        <v>494.541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FY3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96.21299999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.473</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.851</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6718.884</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2988.554</v>
+      </c>
+      <c r="J9" t="n">
+        <v>700</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7281.773</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-2979.591</v>
+      </c>
+      <c r="M9" t="n">
+        <v>532.126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FY3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96.21299999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.007</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.167</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8020.861</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2967.823</v>
+      </c>
+      <c r="J10" t="n">
+        <v>700</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8133.103</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2966.036</v>
+      </c>
+      <c r="M10" t="n">
+        <v>693.325</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FY4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>222.174</v>
+      </c>
+      <c r="E11" t="n">
+        <v>87.268</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.441</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10518.783</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1564.054</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10125.896</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1208.127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1619.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FY4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>222.174</v>
+      </c>
+      <c r="E12" t="n">
+        <v>87.268</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.062</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10235.537</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1307.454</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10166.833</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1245.213</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1794.467</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FY4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>222.174</v>
+      </c>
+      <c r="E13" t="n">
+        <v>87.268</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24.853</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.746</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9392.637000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>543.85</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9150.357</v>
+      </c>
+      <c r="L13" t="n">
+        <v>324.362</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1731.189</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FY5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>209.77</v>
+      </c>
+      <c r="E14" t="n">
+        <v>128.386</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.898</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.107</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12119.888</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-2503.441</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10882.15</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-3211.451</v>
+      </c>
+      <c r="M14" t="n">
+        <v>695.1420000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FY5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>209.77</v>
+      </c>
+      <c r="E15" t="n">
+        <v>128.386</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10778.999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3270.456</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10260.845</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-3566.85</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1193.998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FY5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>209.77</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128.386</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25.816</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10123.042</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3645.676</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9435.689</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-4038.855</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1113.467</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>M1并集时长(s)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.593</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>M2并集时长(s)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>M3并集时长(s)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>总并集时长和(s)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4.593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>